--- a/result/29_pred.xlsx
+++ b/result/29_pred.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,338 +447,330 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>550983.9632</v>
+        <v>550873.5545</v>
       </c>
       <c r="B2" t="n">
-        <v>372776.4486</v>
+        <v>372820.0347</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>550958.9632</v>
+        <v>550885.7545</v>
       </c>
       <c r="B3" t="n">
-        <v>372761.4486</v>
+        <v>372837.5347</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>550938.9632</v>
+        <v>550903.5545</v>
       </c>
       <c r="B4" t="n">
-        <v>372756.4486</v>
+        <v>372837.5347</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>550983.9632</v>
+        <v>550914.0545</v>
       </c>
       <c r="B5" t="n">
-        <v>372801.4486</v>
+        <v>372820.0347</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>550983.9632</v>
+        <v>550914.0545</v>
       </c>
       <c r="B6" t="n">
-        <v>372816.4486</v>
+        <v>372750.0347</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>550983.9632</v>
+        <v>550873.5545</v>
       </c>
       <c r="B7" t="n">
-        <v>372831.4486</v>
+        <v>372750.0347</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>550964.6675</v>
+        <v>550943.2545</v>
       </c>
       <c r="B8" t="n">
-        <v>372785.9331</v>
+        <v>372833.5447</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>550964.91266</v>
+        <v>550970.3272000001</v>
       </c>
       <c r="B9" t="n">
-        <v>372833.44782</v>
+        <v>372833.4236</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>550923.9632</v>
+        <v>550970.0545</v>
       </c>
       <c r="B10" t="n">
-        <v>372751.4486</v>
+        <v>372820.8447</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>550903.9632</v>
+        <v>550944.4775</v>
       </c>
       <c r="B11" t="n">
-        <v>372751.4486</v>
+        <v>372820.8931</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>550943.9632</v>
+        <v>550947.8175</v>
       </c>
       <c r="B12" t="n">
-        <v>372826.4486</v>
+        <v>372797.2531</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>550908.9632</v>
+        <v>550974.6675</v>
       </c>
       <c r="B13" t="n">
-        <v>372771.4486</v>
+        <v>372797.3731</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>550978.9632</v>
+        <v>550974.8675000001</v>
       </c>
       <c r="B14" t="n">
-        <v>372751.4486</v>
+        <v>372787.1731</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>550913.9632</v>
+        <v>550944.2675</v>
       </c>
       <c r="B15" t="n">
-        <v>372826.4486</v>
+        <v>372783.4531</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>550878.9632</v>
+        <v>550944.3875</v>
       </c>
       <c r="B16" t="n">
-        <v>372756.4486</v>
+        <v>372763.0331</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>550953.9632</v>
+        <v>550965.1475</v>
       </c>
       <c r="B17" t="n">
-        <v>372811.4486</v>
+        <v>372763.0331</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>550913.9632</v>
+        <v>550965.1475</v>
       </c>
       <c r="B18" t="n">
-        <v>372811.4486</v>
+        <v>372750.8731</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>550903.9632</v>
+        <v>550943.1745</v>
       </c>
       <c r="B19" t="n">
-        <v>372796.4486</v>
+        <v>372750.7947</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>550898.9632</v>
+        <v>550914.0545</v>
       </c>
       <c r="B20" t="n">
-        <v>372826.4486</v>
+        <v>372785.0347</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>550923.9632</v>
+        <v>550893.8045</v>
       </c>
       <c r="B21" t="n">
-        <v>372781.4486</v>
+        <v>372750.0347</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>550923.9632</v>
+        <v>550873.5545</v>
       </c>
       <c r="B22" t="n">
-        <v>372766.4486</v>
+        <v>372785.0347</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>550893.9632</v>
+        <v>550959.5675</v>
       </c>
       <c r="B23" t="n">
-        <v>372811.4486</v>
+        <v>372785.3131</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>550928.9632</v>
+        <v>550992.33715</v>
       </c>
       <c r="B24" t="n">
-        <v>372811.4486</v>
+        <v>372748.5486</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>550928.9632</v>
+        <v>550992.33715</v>
       </c>
       <c r="B25" t="n">
-        <v>372836.4486</v>
+        <v>372763.5486</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>550893.9632</v>
+        <v>550894.83715</v>
       </c>
       <c r="B26" t="n">
-        <v>372781.4486</v>
+        <v>372801.0486</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>550893.9632</v>
+        <v>550992.33715</v>
       </c>
       <c r="B27" t="n">
-        <v>372766.4486</v>
+        <v>372816.0486</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>550938.9632</v>
+        <v>550992.33715</v>
       </c>
       <c r="B28" t="n">
-        <v>372771.4486</v>
+        <v>372838.5486</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>550968.9632</v>
+        <v>550894.83715</v>
       </c>
       <c r="B29" t="n">
-        <v>372811.4486</v>
+        <v>372771.0486</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>550873.9632</v>
+        <v>550894.83715</v>
       </c>
       <c r="B30" t="n">
-        <v>372841.4486</v>
+        <v>372816.0486</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>550913.9632</v>
+        <v>550992.33715</v>
       </c>
       <c r="B31" t="n">
-        <v>372841.4486</v>
+        <v>372778.5486</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>550938.9632</v>
+        <v>550924.83715</v>
       </c>
       <c r="B32" t="n">
-        <v>372786.4486</v>
+        <v>372801.0486</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>550876.6045</v>
+        <v>550894.83715</v>
       </c>
       <c r="B33" t="n">
-        <v>372824.4097</v>
+        <v>372786.0486</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>550873.9632</v>
+        <v>550924.83715</v>
       </c>
       <c r="B34" t="n">
-        <v>372806.4486</v>
+        <v>372838.5486</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>550873.9632</v>
+        <v>550992.33715</v>
       </c>
       <c r="B35" t="n">
-        <v>372791.4486</v>
+        <v>372793.5486</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>550873.9632</v>
+        <v>550924.83715</v>
       </c>
       <c r="B36" t="n">
-        <v>372776.4486</v>
+        <v>372771.0486</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>550993.9632</v>
+        <v>550879.83715</v>
       </c>
       <c r="B37" t="n">
-        <v>372746.4486</v>
+        <v>372801.0486</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>550953.9632</v>
+        <v>550909.83715</v>
       </c>
       <c r="B38" t="n">
-        <v>372796.4486</v>
+        <v>372801.0486</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>550993.9632</v>
+        <v>550879.83715</v>
       </c>
       <c r="B39" t="n">
-        <v>372761.4486</v>
+        <v>372771.0486</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>550923.9632</v>
+        <v>550909.83715</v>
       </c>
       <c r="B40" t="n">
-        <v>372796.4486</v>
+        <v>372771.0486</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>550888.9632</v>
+        <v>550977.33715</v>
       </c>
       <c r="B41" t="n">
-        <v>372841.4486</v>
+        <v>372771.0486</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>550958.9632</v>
+        <v>550962.33715</v>
       </c>
       <c r="B42" t="n">
-        <v>372746.4486</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>550948.9632</v>
-      </c>
-      <c r="B43" t="n">
-        <v>372841.4486</v>
+        <v>372808.5486</v>
       </c>
     </row>
   </sheetData>

--- a/result/29_pred.xlsx
+++ b/result/29_pred.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -623,154 +623,66 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>550992.33715</v>
+        <v>550896.33715</v>
       </c>
       <c r="B24" t="n">
-        <v>372748.5486</v>
+        <v>372805.5486</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>550992.33715</v>
+        <v>550896.33715</v>
       </c>
       <c r="B25" t="n">
-        <v>372763.5486</v>
+        <v>372769.5486</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>550894.83715</v>
+        <v>550932.33715</v>
       </c>
       <c r="B26" t="n">
-        <v>372801.0486</v>
+        <v>372805.5486</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>550992.33715</v>
+        <v>550920.33715</v>
       </c>
       <c r="B27" t="n">
-        <v>372816.0486</v>
+        <v>372841.5486</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>550992.33715</v>
+        <v>550920.33715</v>
       </c>
       <c r="B28" t="n">
-        <v>372838.5486</v>
+        <v>372769.5486</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>550894.83715</v>
+        <v>550980.33715</v>
       </c>
       <c r="B29" t="n">
-        <v>372771.0486</v>
+        <v>372769.5486</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>550894.83715</v>
+        <v>550980.33715</v>
       </c>
       <c r="B30" t="n">
-        <v>372816.0486</v>
+        <v>372745.5486</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>550992.33715</v>
+        <v>550956.33715</v>
       </c>
       <c r="B31" t="n">
-        <v>372778.5486</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>550924.83715</v>
-      </c>
-      <c r="B32" t="n">
-        <v>372801.0486</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>550894.83715</v>
-      </c>
-      <c r="B33" t="n">
-        <v>372786.0486</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>550924.83715</v>
-      </c>
-      <c r="B34" t="n">
-        <v>372838.5486</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>550992.33715</v>
-      </c>
-      <c r="B35" t="n">
-        <v>372793.5486</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>550924.83715</v>
-      </c>
-      <c r="B36" t="n">
-        <v>372771.0486</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>550879.83715</v>
-      </c>
-      <c r="B37" t="n">
-        <v>372801.0486</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>550909.83715</v>
-      </c>
-      <c r="B38" t="n">
-        <v>372801.0486</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>550879.83715</v>
-      </c>
-      <c r="B39" t="n">
-        <v>372771.0486</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>550909.83715</v>
-      </c>
-      <c r="B40" t="n">
-        <v>372771.0486</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>550977.33715</v>
-      </c>
-      <c r="B41" t="n">
-        <v>372771.0486</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>550962.33715</v>
-      </c>
-      <c r="B42" t="n">
-        <v>372808.5486</v>
+        <v>372841.5486</v>
       </c>
     </row>
   </sheetData>
